--- a/Project/Module-1/00-UseCaseScenario/Modul_1_Use_Case_Story.xlsx
+++ b/Project/Module-1/00-UseCaseScenario/Modul_1_Use_Case_Story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batuh\OneDrive\Masaüstü\BLM3722_Proje\BLM3722_Software_Engineering\Project\Module-1\00-UseCaseScenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE33031C-92C5-40C0-9B61-E24BAE972231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A547AC-A565-4D79-94BE-C397474081F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AA77009-6167-4E3B-8B35-DD9C6568544C}"/>
   </bookViews>
@@ -139,19 +139,19 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,7 +470,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,19 +480,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -500,27 +500,27 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="1"/>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -528,11 +528,11 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -540,11 +540,11 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -552,11 +552,11 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="1"/>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -564,11 +564,17 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="1"/>
       <c r="B15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A8:A9"/>
@@ -577,12 +583,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
